--- a/pred_ohlcv/54/2019-10-19 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 QTUM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -411,21 +416,24 @@
         <v>2001</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D2" t="n">
         <v>2001</v>
       </c>
       <c r="E2" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F2" t="n">
-        <v>136.965</v>
+        <v>93.614</v>
       </c>
       <c r="G2" t="n">
-        <v>2006.3</v>
+        <v>2006.233333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C3" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E3" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="F3" t="n">
-        <v>483.1655</v>
+        <v>136.965</v>
       </c>
       <c r="G3" t="n">
-        <v>2006.483333333333</v>
+        <v>2006.3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C4" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D4" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E4" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F4" t="n">
-        <v>90.3622</v>
+        <v>483.1655</v>
       </c>
       <c r="G4" t="n">
-        <v>2006.633333333333</v>
+        <v>2006.483333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C5" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D5" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E5" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="F5" t="n">
-        <v>7.04</v>
+        <v>90.3622</v>
       </c>
       <c r="G5" t="n">
-        <v>2006.716666666667</v>
+        <v>2006.633333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>2000</v>
       </c>
       <c r="C6" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="n">
         <v>2000</v>
       </c>
       <c r="E6" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F6" t="n">
-        <v>170.391</v>
+        <v>7.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2006.766666666667</v>
+        <v>2006.716666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="F7" t="n">
-        <v>129.5851</v>
+        <v>170.391</v>
       </c>
       <c r="G7" t="n">
-        <v>2006.666666666667</v>
+        <v>2006.766666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="n">
         <v>1996</v>
       </c>
-      <c r="C8" t="n">
-        <v>1993</v>
-      </c>
       <c r="D8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E8" t="n">
         <v>1996</v>
       </c>
-      <c r="E8" t="n">
-        <v>1993</v>
-      </c>
       <c r="F8" t="n">
-        <v>1444.0626</v>
+        <v>129.5851</v>
       </c>
       <c r="G8" t="n">
-        <v>2006.616666666667</v>
+        <v>2006.666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C9" t="n">
         <v>1993</v>
       </c>
-      <c r="C9" t="n">
-        <v>1991</v>
-      </c>
       <c r="D9" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E9" t="n">
         <v>1993</v>
       </c>
-      <c r="E9" t="n">
-        <v>1991</v>
-      </c>
       <c r="F9" t="n">
-        <v>20.42</v>
+        <v>1444.0626</v>
       </c>
       <c r="G9" t="n">
-        <v>2006.483333333333</v>
+        <v>2006.616666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C10" t="n">
         <v>1991</v>
       </c>
       <c r="D10" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="E10" t="n">
         <v>1991</v>
       </c>
       <c r="F10" t="n">
-        <v>33.7342</v>
+        <v>20.42</v>
       </c>
       <c r="G10" t="n">
-        <v>2006.35</v>
+        <v>2006.483333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="C11" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="D11" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="E11" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="F11" t="n">
-        <v>1.05105105</v>
+        <v>33.7342</v>
       </c>
       <c r="G11" t="n">
-        <v>2006.333333333333</v>
+        <v>2006.35</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C12" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D12" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E12" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>1.05105105</v>
       </c>
       <c r="G12" t="n">
-        <v>2006.35</v>
+        <v>2006.333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>1999</v>
       </c>
       <c r="F13" t="n">
-        <v>82.67100000000001</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2006.133333333333</v>
+        <v>2006.35</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C14" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D14" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E14" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="F14" t="n">
-        <v>2.6317</v>
+        <v>82.67100000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>2006.1</v>
+        <v>2006.133333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>1997</v>
       </c>
       <c r="F15" t="n">
-        <v>2.70405608</v>
+        <v>2.6317</v>
       </c>
       <c r="G15" t="n">
-        <v>2006.066666666667</v>
+        <v>2006.1</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>1997</v>
       </c>
       <c r="F16" t="n">
-        <v>13.7232</v>
+        <v>2.70405608</v>
       </c>
       <c r="G16" t="n">
-        <v>2005.816666666667</v>
+        <v>2006.066666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="C17" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="D17" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="E17" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="F17" t="n">
-        <v>98</v>
+        <v>13.7232</v>
       </c>
       <c r="G17" t="n">
-        <v>2005.6</v>
+        <v>2005.816666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C18" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D18" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E18" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F18" t="n">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G18" t="n">
-        <v>2005.383333333333</v>
+        <v>2005.6</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>1991</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="G19" t="n">
-        <v>2005.2</v>
+        <v>2005.383333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>1991</v>
       </c>
       <c r="C20" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="D20" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="E20" t="n">
         <v>1991</v>
       </c>
       <c r="F20" t="n">
-        <v>532.9772</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>2005.25</v>
+        <v>2005.2</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="C21" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D21" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E21" t="n">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="F21" t="n">
-        <v>5.00751126</v>
+        <v>532.9772</v>
       </c>
       <c r="G21" t="n">
-        <v>2005.233333333333</v>
+        <v>2005.25</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>1997</v>
       </c>
       <c r="F22" t="n">
-        <v>37.5563</v>
+        <v>5.00751126</v>
       </c>
       <c r="G22" t="n">
-        <v>2005.266666666667</v>
+        <v>2005.233333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="C23" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="D23" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="E23" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="F23" t="n">
-        <v>26.2335</v>
+        <v>37.5563</v>
       </c>
       <c r="G23" t="n">
-        <v>2005.133333333333</v>
+        <v>2005.266666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="C24" t="n">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="D24" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="E24" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="F24" t="n">
-        <v>1059.5598</v>
+        <v>26.2335</v>
       </c>
       <c r="G24" t="n">
-        <v>2005.25</v>
+        <v>2005.133333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="C25" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D25" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E25" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="F25" t="n">
-        <v>127.7</v>
+        <v>1059.5598</v>
       </c>
       <c r="G25" t="n">
-        <v>2005.233333333333</v>
+        <v>2005.25</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C26" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D26" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E26" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F26" t="n">
-        <v>79.4545</v>
+        <v>127.7</v>
       </c>
       <c r="G26" t="n">
-        <v>2005.25</v>
+        <v>2005.233333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C27" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D27" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E27" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" t="n">
-        <v>1953.5813</v>
+        <v>79.4545</v>
       </c>
       <c r="G27" t="n">
-        <v>2005.183333333333</v>
+        <v>2005.25</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C28" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D28" t="n">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E28" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="F28" t="n">
-        <v>936.4347</v>
+        <v>1953.5813</v>
       </c>
       <c r="G28" t="n">
-        <v>2005.133333333333</v>
+        <v>2005.183333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C29" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D29" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E29" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F29" t="n">
-        <v>203.7999</v>
+        <v>936.4347</v>
       </c>
       <c r="G29" t="n">
-        <v>2005.066666666667</v>
+        <v>2005.133333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C30" t="n">
         <v>2007</v>
       </c>
       <c r="D30" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E30" t="n">
         <v>2007</v>
       </c>
       <c r="F30" t="n">
-        <v>196.5106</v>
+        <v>203.7999</v>
       </c>
       <c r="G30" t="n">
-        <v>2004.9</v>
+        <v>2005.066666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C31" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="D31" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E31" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1</v>
+        <v>196.5106</v>
       </c>
       <c r="G31" t="n">
-        <v>2004.8</v>
+        <v>2004.9</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C32" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D32" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E32" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F32" t="n">
-        <v>69.3168</v>
+        <v>0.1</v>
       </c>
       <c r="G32" t="n">
-        <v>2004.766666666667</v>
+        <v>2004.8</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C33" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E33" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="F33" t="n">
-        <v>150</v>
+        <v>69.3168</v>
       </c>
       <c r="G33" t="n">
-        <v>2004.616666666667</v>
+        <v>2004.766666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C34" t="n">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="D34" t="n">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E34" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="F34" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G34" t="n">
-        <v>2004.633333333333</v>
+        <v>2004.616666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C35" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E35" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F35" t="n">
-        <v>28.162</v>
+        <v>144</v>
       </c>
       <c r="G35" t="n">
-        <v>2004.416666666667</v>
+        <v>2004.633333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F36" t="n">
-        <v>82.30200000000001</v>
+        <v>28.162</v>
       </c>
       <c r="G36" t="n">
-        <v>2004.266666666667</v>
+        <v>2004.416666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C37" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D37" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E37" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F37" t="n">
-        <v>316.6206</v>
+        <v>82.30200000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>2004.216666666667</v>
+        <v>2004.266666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C38" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E38" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0983</v>
+        <v>316.6206</v>
       </c>
       <c r="G38" t="n">
-        <v>2004.083333333333</v>
+        <v>2004.216666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>2009</v>
       </c>
       <c r="F39" t="n">
-        <v>219.268</v>
+        <v>1.0983</v>
       </c>
       <c r="G39" t="n">
-        <v>2003.933333333333</v>
+        <v>2004.083333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C40" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D40" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E40" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5286</v>
+        <v>219.268</v>
       </c>
       <c r="G40" t="n">
-        <v>2003.816666666667</v>
+        <v>2003.933333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>2010</v>
       </c>
       <c r="F41" t="n">
-        <v>35.8208</v>
+        <v>234.5286</v>
       </c>
       <c r="G41" t="n">
-        <v>2003.7</v>
+        <v>2003.816666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>2010</v>
       </c>
       <c r="F42" t="n">
-        <v>83.1384</v>
+        <v>35.8208</v>
       </c>
       <c r="G42" t="n">
-        <v>2003.633333333333</v>
+        <v>2003.7</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C43" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="D43" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E43" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F43" t="n">
-        <v>1175.6072</v>
+        <v>83.1384</v>
       </c>
       <c r="G43" t="n">
-        <v>2003.45</v>
+        <v>2003.633333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C44" t="n">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="D44" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E44" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="F44" t="n">
-        <v>955.06994047</v>
+        <v>1175.6072</v>
       </c>
       <c r="G44" t="n">
-        <v>2003.433333333333</v>
+        <v>2003.45</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C45" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="E45" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="F45" t="n">
-        <v>14.3447</v>
+        <v>955.06994047</v>
       </c>
       <c r="G45" t="n">
-        <v>2003.2</v>
+        <v>2003.433333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C46" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D46" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E46" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F46" t="n">
-        <v>316.6108</v>
+        <v>14.3447</v>
       </c>
       <c r="G46" t="n">
-        <v>2003.083333333333</v>
+        <v>2003.2</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C47" t="n">
         <v>2001</v>
       </c>
       <c r="D47" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E47" t="n">
         <v>2001</v>
       </c>
       <c r="F47" t="n">
-        <v>30.0842</v>
+        <v>316.6108</v>
       </c>
       <c r="G47" t="n">
-        <v>2002.966666666667</v>
+        <v>2003.083333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>2001</v>
       </c>
       <c r="C48" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D48" t="n">
         <v>2001</v>
       </c>
       <c r="E48" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F48" t="n">
-        <v>1383.2054</v>
+        <v>30.0842</v>
       </c>
       <c r="G48" t="n">
-        <v>2002.833333333333</v>
+        <v>2002.966666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C49" t="n">
         <v>2000</v>
       </c>
       <c r="D49" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E49" t="n">
         <v>2000</v>
       </c>
       <c r="F49" t="n">
-        <v>635.5192</v>
+        <v>1383.2054</v>
       </c>
       <c r="G49" t="n">
-        <v>2002.783333333333</v>
+        <v>2002.833333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>2000</v>
       </c>
       <c r="F50" t="n">
-        <v>5.9782</v>
+        <v>635.5192</v>
       </c>
       <c r="G50" t="n">
-        <v>2002.65</v>
+        <v>2002.783333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>2000</v>
       </c>
       <c r="F51" t="n">
-        <v>12.8941</v>
+        <v>5.9782</v>
       </c>
       <c r="G51" t="n">
-        <v>2002.633333333333</v>
+        <v>2002.65</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F52" t="n">
-        <v>190.1593</v>
+        <v>12.8941</v>
       </c>
       <c r="G52" t="n">
-        <v>2002.683333333333</v>
+        <v>2002.633333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>2002</v>
       </c>
       <c r="F53" t="n">
-        <v>282.8809</v>
+        <v>190.1593</v>
       </c>
       <c r="G53" t="n">
-        <v>2002.7</v>
+        <v>2002.683333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>2002</v>
       </c>
       <c r="F54" t="n">
-        <v>30.7467</v>
+        <v>282.8809</v>
       </c>
       <c r="G54" t="n">
-        <v>2002.716666666667</v>
+        <v>2002.7</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C55" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D55" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E55" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F55" t="n">
-        <v>57.937</v>
+        <v>30.7467</v>
       </c>
       <c r="G55" t="n">
-        <v>2002.666666666667</v>
+        <v>2002.716666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>2000</v>
       </c>
       <c r="F56" t="n">
-        <v>79.1688</v>
+        <v>57.937</v>
       </c>
       <c r="G56" t="n">
-        <v>2002.633333333333</v>
+        <v>2002.666666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>2000</v>
       </c>
       <c r="F57" t="n">
-        <v>298.7163</v>
+        <v>79.1688</v>
       </c>
       <c r="G57" t="n">
-        <v>2002.6</v>
+        <v>2002.633333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>2000</v>
       </c>
       <c r="C58" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D58" t="n">
         <v>2000</v>
       </c>
       <c r="E58" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F58" t="n">
-        <v>231.7795</v>
+        <v>298.7163</v>
       </c>
       <c r="G58" t="n">
-        <v>2002.55</v>
+        <v>2002.6</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C59" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="D59" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E59" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="F59" t="n">
-        <v>102.7</v>
+        <v>231.7795</v>
       </c>
       <c r="G59" t="n">
-        <v>2002.516666666667</v>
+        <v>2002.55</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="C60" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="D60" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E60" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F60" t="n">
-        <v>39.242</v>
+        <v>102.7</v>
       </c>
       <c r="G60" t="n">
-        <v>2002.4</v>
+        <v>2002.516666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="C61" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="D61" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E61" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="F61" t="n">
-        <v>161.4475</v>
+        <v>39.242</v>
       </c>
       <c r="G61" t="n">
-        <v>2002.416666666667</v>
+        <v>2002.4</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="C62" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="D62" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E62" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F62" t="n">
-        <v>42.7992</v>
+        <v>161.4475</v>
       </c>
       <c r="G62" t="n">
-        <v>2002.366666666667</v>
+        <v>2002.416666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C63" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D63" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E63" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F63" t="n">
-        <v>102.466</v>
+        <v>42.7992</v>
       </c>
       <c r="G63" t="n">
-        <v>2002.233333333333</v>
+        <v>2002.366666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>1998</v>
       </c>
       <c r="F64" t="n">
-        <v>87.5737</v>
+        <v>102.466</v>
       </c>
       <c r="G64" t="n">
-        <v>2002.133333333333</v>
+        <v>2002.233333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>1998</v>
       </c>
       <c r="F65" t="n">
-        <v>39.0897</v>
+        <v>87.5737</v>
       </c>
       <c r="G65" t="n">
-        <v>2002.1</v>
+        <v>2002.133333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C66" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="D66" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E66" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="F66" t="n">
-        <v>0.13</v>
+        <v>39.0897</v>
       </c>
       <c r="G66" t="n">
-        <v>2002.183333333333</v>
+        <v>2002.1</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C67" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="D67" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E67" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1527</v>
+        <v>0.13</v>
       </c>
       <c r="G67" t="n">
-        <v>2002.233333333333</v>
+        <v>2002.183333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C68" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D68" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E68" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F68" t="n">
-        <v>301</v>
+        <v>0.1527</v>
       </c>
       <c r="G68" t="n">
-        <v>2002.366666666667</v>
+        <v>2002.233333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C69" t="n">
         <v>2001</v>
@@ -2159,15 +2365,18 @@
         <v>2001</v>
       </c>
       <c r="E69" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="G69" t="n">
-        <v>2002.533333333333</v>
+        <v>2002.366666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C70" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D70" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E70" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F70" t="n">
-        <v>95.0877</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
-        <v>2002.683333333333</v>
+        <v>2002.533333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>2000</v>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>95.0877</v>
       </c>
       <c r="G71" t="n">
-        <v>2002.716666666667</v>
+        <v>2002.683333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>2000</v>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G72" t="n">
-        <v>2002.733333333333</v>
+        <v>2002.716666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C73" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D73" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E73" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F73" t="n">
-        <v>42.5686</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
-        <v>2002.716666666667</v>
+        <v>2002.733333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>1998</v>
       </c>
       <c r="C74" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D74" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E74" t="n">
         <v>1998</v>
       </c>
       <c r="F74" t="n">
-        <v>699.5955</v>
+        <v>42.5686</v>
       </c>
       <c r="G74" t="n">
-        <v>2002.766666666667</v>
+        <v>2002.716666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C75" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D75" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E75" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F75" t="n">
-        <v>198.2865</v>
+        <v>699.5955</v>
       </c>
       <c r="G75" t="n">
-        <v>2002.833333333333</v>
+        <v>2002.766666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C76" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D76" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E76" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F76" t="n">
-        <v>407.5</v>
+        <v>198.2865</v>
       </c>
       <c r="G76" t="n">
-        <v>2002.85</v>
+        <v>2002.833333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C77" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D77" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E77" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F77" t="n">
-        <v>3.0984</v>
+        <v>407.5</v>
       </c>
       <c r="G77" t="n">
-        <v>2002.933333333333</v>
+        <v>2002.85</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>3.0984</v>
       </c>
       <c r="G78" t="n">
-        <v>2003.05</v>
+        <v>2002.933333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C79" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D79" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E79" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F79" t="n">
-        <v>27.7741</v>
+        <v>200</v>
       </c>
       <c r="G79" t="n">
-        <v>2003.2</v>
+        <v>2003.05</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D80" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E80" t="n">
         <v>2000</v>
       </c>
       <c r="F80" t="n">
-        <v>378.7749</v>
+        <v>27.7741</v>
       </c>
       <c r="G80" t="n">
-        <v>2003.3</v>
+        <v>2003.2</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C81" t="n">
         <v>2004</v>
       </c>
-      <c r="C81" t="n">
-        <v>2005</v>
-      </c>
       <c r="D81" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E81" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F81" t="n">
-        <v>348.772</v>
+        <v>378.7749</v>
       </c>
       <c r="G81" t="n">
-        <v>2003.433333333333</v>
+        <v>2003.3</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C82" t="n">
         <v>2005</v>
       </c>
-      <c r="C82" t="n">
-        <v>2010</v>
-      </c>
       <c r="D82" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E82" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F82" t="n">
-        <v>851</v>
+        <v>348.772</v>
       </c>
       <c r="G82" t="n">
-        <v>2003.65</v>
+        <v>2003.433333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C83" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D83" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E83" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F83" t="n">
-        <v>500.1</v>
+        <v>851</v>
       </c>
       <c r="G83" t="n">
-        <v>2004</v>
+        <v>2003.65</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D84" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="E84" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>500.1</v>
       </c>
       <c r="G84" t="n">
-        <v>2004.016666666667</v>
+        <v>2004</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>2007</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G85" t="n">
-        <v>2003.95</v>
+        <v>2004.016666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C86" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="D86" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E86" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F86" t="n">
         <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>2003.8</v>
+        <v>2003.95</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>2004</v>
       </c>
       <c r="C87" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D87" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="E87" t="n">
         <v>2004</v>
       </c>
       <c r="F87" t="n">
-        <v>534.0048</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>2003.816666666667</v>
+        <v>2003.8</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C88" t="n">
         <v>2009</v>
       </c>
-      <c r="C88" t="n">
-        <v>2017</v>
-      </c>
       <c r="D88" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E88" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="F88" t="n">
-        <v>1050.9782</v>
+        <v>534.0048</v>
       </c>
       <c r="G88" t="n">
-        <v>2003.95</v>
+        <v>2003.816666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D89" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E89" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F89" t="n">
-        <v>45.9585</v>
+        <v>1050.9782</v>
       </c>
       <c r="G89" t="n">
-        <v>2004.15</v>
+        <v>2003.95</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C90" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="D90" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="E90" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F90" t="n">
-        <v>12.39</v>
+        <v>45.9585</v>
       </c>
       <c r="G90" t="n">
-        <v>2004.2</v>
+        <v>2004.15</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,22 +2997,25 @@
         <v>2010</v>
       </c>
       <c r="C91" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D91" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E91" t="n">
         <v>2010</v>
       </c>
       <c r="F91" t="n">
-        <v>597</v>
+        <v>12.39</v>
       </c>
       <c r="G91" t="n">
-        <v>2004.216666666667</v>
+        <v>2004.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C92" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D92" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E92" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F92" t="n">
-        <v>29.6006</v>
+        <v>597</v>
       </c>
       <c r="G92" t="n">
-        <v>2004.1</v>
+        <v>2004.216666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C93" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D93" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E93" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F93" t="n">
-        <v>147.9342</v>
+        <v>29.6006</v>
       </c>
       <c r="G93" t="n">
-        <v>2004.066666666667</v>
+        <v>2004.1</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,25 +3081,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C94" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D94" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E94" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="F94" t="n">
-        <v>196.5255</v>
+        <v>147.9342</v>
       </c>
       <c r="G94" t="n">
-        <v>2003.916666666667</v>
+        <v>2004.066666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2826,25 +3110,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F95" t="n">
-        <v>97</v>
+        <v>196.5255</v>
       </c>
       <c r="G95" t="n">
-        <v>2003.883333333333</v>
+        <v>2003.916666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2864,13 +3151,16 @@
         <v>2008</v>
       </c>
       <c r="F96" t="n">
-        <v>149.44</v>
+        <v>97</v>
       </c>
       <c r="G96" t="n">
-        <v>2003.866666666667</v>
+        <v>2003.883333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2890,12 +3180,15 @@
         <v>2008</v>
       </c>
       <c r="F97" t="n">
-        <v>22.9525</v>
+        <v>149.44</v>
       </c>
       <c r="G97" t="n">
-        <v>2003.75</v>
+        <v>2003.866666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>2008</v>
       </c>
       <c r="C98" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D98" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="E98" t="n">
         <v>2008</v>
       </c>
       <c r="F98" t="n">
-        <v>16.1906</v>
+        <v>22.9525</v>
       </c>
       <c r="G98" t="n">
-        <v>2003.816666666667</v>
+        <v>2003.75</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>2008</v>
       </c>
       <c r="C99" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D99" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E99" t="n">
         <v>2008</v>
       </c>
       <c r="F99" t="n">
-        <v>19.679</v>
+        <v>16.1906</v>
       </c>
       <c r="G99" t="n">
-        <v>2003.8</v>
+        <v>2003.816666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>2008</v>
       </c>
       <c r="F100" t="n">
-        <v>182.1572</v>
+        <v>19.679</v>
       </c>
       <c r="G100" t="n">
-        <v>2003.766666666667</v>
+        <v>2003.8</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>2008</v>
       </c>
       <c r="F101" t="n">
-        <v>214.711</v>
+        <v>182.1572</v>
       </c>
       <c r="G101" t="n">
-        <v>2003.733333333333</v>
+        <v>2003.766666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>2008</v>
       </c>
       <c r="F102" t="n">
-        <v>82.86799999999999</v>
+        <v>214.711</v>
       </c>
       <c r="G102" t="n">
-        <v>2003.7</v>
+        <v>2003.733333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>2008</v>
       </c>
       <c r="F103" t="n">
-        <v>694.9</v>
+        <v>82.86799999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>2003.8</v>
+        <v>2003.7</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>2008</v>
       </c>
       <c r="F104" t="n">
-        <v>79</v>
+        <v>694.9</v>
       </c>
       <c r="G104" t="n">
-        <v>2003.666666666667</v>
+        <v>2003.8</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>2008</v>
       </c>
       <c r="F105" t="n">
-        <v>223.1</v>
+        <v>79</v>
       </c>
       <c r="G105" t="n">
-        <v>2003.75</v>
+        <v>2003.666666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>2008</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>223.1</v>
       </c>
       <c r="G106" t="n">
-        <v>2003.866666666667</v>
+        <v>2003.75</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>2008</v>
       </c>
       <c r="F107" t="n">
-        <v>75.2641</v>
+        <v>4</v>
       </c>
       <c r="G107" t="n">
-        <v>2003.983333333333</v>
+        <v>2003.866666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,21 +3490,24 @@
         <v>2008</v>
       </c>
       <c r="C108" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D108" t="n">
         <v>2008</v>
       </c>
       <c r="E108" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F108" t="n">
-        <v>2549.5961</v>
+        <v>75.2641</v>
       </c>
       <c r="G108" t="n">
         <v>2003.983333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="C109" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D109" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E109" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F109" t="n">
-        <v>4.4804</v>
+        <v>2549.5961</v>
       </c>
       <c r="G109" t="n">
-        <v>2003.933333333333</v>
+        <v>2003.983333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C110" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="D110" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="E110" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="F110" t="n">
-        <v>356.125</v>
+        <v>4.4804</v>
       </c>
       <c r="G110" t="n">
-        <v>2003.85</v>
+        <v>2003.933333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C111" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D111" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E111" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F111" t="n">
-        <v>34.2765</v>
+        <v>356.125</v>
       </c>
       <c r="G111" t="n">
-        <v>2003.783333333333</v>
+        <v>2003.85</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C112" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="D112" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="E112" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>34.2765</v>
       </c>
       <c r="G112" t="n">
         <v>2003.783333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C113" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="D113" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E113" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="F113" t="n">
-        <v>933.3797</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>2003.65</v>
+        <v>2003.783333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>2001</v>
       </c>
       <c r="C114" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="D114" t="n">
         <v>2001</v>
       </c>
       <c r="E114" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="F114" t="n">
-        <v>29.1623</v>
+        <v>933.3797</v>
       </c>
       <c r="G114" t="n">
-        <v>2003.633333333333</v>
+        <v>2003.65</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>2001</v>
       </c>
       <c r="F115" t="n">
-        <v>18.6842</v>
+        <v>29.1623</v>
       </c>
       <c r="G115" t="n">
-        <v>2003.65</v>
+        <v>2003.633333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="C116" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="D116" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="E116" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="F116" t="n">
-        <v>324.1783</v>
+        <v>18.6842</v>
       </c>
       <c r="G116" t="n">
-        <v>2003.533333333333</v>
+        <v>2003.65</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C117" t="n">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="D117" t="n">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="E117" t="n">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="F117" t="n">
-        <v>96.3999</v>
+        <v>324.1783</v>
       </c>
       <c r="G117" t="n">
-        <v>2003.483333333333</v>
+        <v>2003.533333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C118" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D118" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E118" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="F118" t="n">
-        <v>50</v>
+        <v>96.3999</v>
       </c>
       <c r="G118" t="n">
-        <v>2003.416666666667</v>
+        <v>2003.483333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="C119" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="D119" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E119" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="F119" t="n">
-        <v>6.2093</v>
+        <v>50</v>
       </c>
       <c r="G119" t="n">
-        <v>2003.4</v>
+        <v>2003.416666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C120" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D120" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E120" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F120" t="n">
-        <v>25.7318</v>
+        <v>6.2093</v>
       </c>
       <c r="G120" t="n">
-        <v>2003.45</v>
+        <v>2003.4</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C121" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D121" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E121" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F121" t="n">
-        <v>20.8636</v>
+        <v>25.7318</v>
       </c>
       <c r="G121" t="n">
-        <v>2003.383333333333</v>
+        <v>2003.45</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C122" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D122" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E122" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F122" t="n">
-        <v>15.202</v>
+        <v>20.8636</v>
       </c>
       <c r="G122" t="n">
-        <v>2003.416666666667</v>
+        <v>2003.383333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C123" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D123" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E123" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F123" t="n">
-        <v>41.4955</v>
+        <v>15.202</v>
       </c>
       <c r="G123" t="n">
-        <v>2003.45</v>
+        <v>2003.416666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>2000</v>
       </c>
       <c r="F124" t="n">
-        <v>13.3925</v>
+        <v>41.4955</v>
       </c>
       <c r="G124" t="n">
-        <v>2003.483333333333</v>
+        <v>2003.45</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>2000</v>
       </c>
       <c r="F125" t="n">
-        <v>12.0533</v>
+        <v>13.3925</v>
       </c>
       <c r="G125" t="n">
-        <v>2003.516666666667</v>
+        <v>2003.483333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C126" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D126" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E126" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F126" t="n">
-        <v>16.5894</v>
+        <v>12.0533</v>
       </c>
       <c r="G126" t="n">
-        <v>2003.433333333333</v>
+        <v>2003.516666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C127" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="D127" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E127" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="F127" t="n">
-        <v>468.421</v>
+        <v>16.5894</v>
       </c>
       <c r="G127" t="n">
-        <v>2003.366666666667</v>
+        <v>2003.433333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>1998</v>
       </c>
       <c r="C128" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D128" t="n">
         <v>1998</v>
       </c>
       <c r="E128" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F128" t="n">
-        <v>113.6099</v>
+        <v>468.421</v>
       </c>
       <c r="G128" t="n">
-        <v>2003.3</v>
+        <v>2003.366666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,21 +4099,24 @@
         <v>1998</v>
       </c>
       <c r="C129" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D129" t="n">
         <v>1998</v>
       </c>
       <c r="E129" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F129" t="n">
-        <v>98.212</v>
+        <v>113.6099</v>
       </c>
       <c r="G129" t="n">
-        <v>2003.25</v>
+        <v>2003.3</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C130" t="n">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="D130" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E130" t="n">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="F130" t="n">
-        <v>2499.1725</v>
+        <v>98.212</v>
       </c>
       <c r="G130" t="n">
-        <v>2003.116666666667</v>
+        <v>2003.25</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C131" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D131" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E131" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F131" t="n">
-        <v>486.157</v>
+        <v>2499.1725</v>
       </c>
       <c r="G131" t="n">
-        <v>2003</v>
+        <v>2003.116666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3791,21 +4186,24 @@
         <v>1993</v>
       </c>
       <c r="C132" t="n">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="D132" t="n">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="E132" t="n">
         <v>1993</v>
       </c>
       <c r="F132" t="n">
-        <v>1868.4807</v>
+        <v>486.157</v>
       </c>
       <c r="G132" t="n">
-        <v>2003.033333333333</v>
+        <v>2003</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,21 +4215,24 @@
         <v>1993</v>
       </c>
       <c r="C133" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="D133" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="E133" t="n">
         <v>1993</v>
       </c>
       <c r="F133" t="n">
-        <v>67.5478</v>
+        <v>1868.4807</v>
       </c>
       <c r="G133" t="n">
-        <v>2002.95</v>
+        <v>2003.033333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>1993</v>
       </c>
       <c r="C134" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="D134" t="n">
         <v>1993</v>
       </c>
       <c r="E134" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="F134" t="n">
-        <v>98.6191</v>
+        <v>67.5478</v>
       </c>
       <c r="G134" t="n">
-        <v>2002.8</v>
+        <v>2002.95</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="C135" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D135" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E135" t="n">
         <v>1991</v>
       </c>
-      <c r="E135" t="n">
-        <v>1990</v>
-      </c>
       <c r="F135" t="n">
-        <v>8939.282300000001</v>
+        <v>98.6191</v>
       </c>
       <c r="G135" t="n">
-        <v>2002.616666666667</v>
+        <v>2002.8</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>1990</v>
       </c>
       <c r="C136" t="n">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="D136" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E136" t="n">
         <v>1990</v>
       </c>
-      <c r="E136" t="n">
-        <v>1985</v>
-      </c>
       <c r="F136" t="n">
-        <v>1360.1573</v>
+        <v>8939.282300000001</v>
       </c>
       <c r="G136" t="n">
-        <v>2002.4</v>
+        <v>2002.616666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,544 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C137" t="n">
         <v>1985</v>
       </c>
-      <c r="C137" t="n">
-        <v>1983</v>
-      </c>
       <c r="D137" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E137" t="n">
         <v>1985</v>
       </c>
-      <c r="E137" t="n">
-        <v>1983</v>
-      </c>
       <c r="F137" t="n">
-        <v>290.782</v>
+        <v>1360.1573</v>
       </c>
       <c r="G137" t="n">
-        <v>2002.166666666667</v>
+        <v>2002.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1988</v>
-      </c>
-      <c r="F138" t="n">
-        <v>198.9015</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F139" t="n">
-        <v>229.0576</v>
-      </c>
-      <c r="G139" t="n">
-        <v>2001.8</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1983</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F140" t="n">
-        <v>43.861</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2001.45</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F141" t="n">
-        <v>500</v>
-      </c>
-      <c r="G141" t="n">
-        <v>2001.05</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F142" t="n">
-        <v>24.8551</v>
-      </c>
-      <c r="G142" t="n">
-        <v>2000.566666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F143" t="n">
-        <v>41.6107</v>
-      </c>
-      <c r="G143" t="n">
-        <v>2000.05</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1976</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1001.0887</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1999.55</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1974</v>
-      </c>
-      <c r="F145" t="n">
-        <v>554.9767000000001</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1999.05</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1976</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1976</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1976</v>
-      </c>
-      <c r="F146" t="n">
-        <v>24.1493</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1998.583333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1983</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1976</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1810.8425</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1998.15</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1984</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1984</v>
-      </c>
-      <c r="F148" t="n">
-        <v>44.0418</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1997.6</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1979</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1979</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1979</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1748.5366</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1996.933333333333</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1984</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1984</v>
-      </c>
-      <c r="F150" t="n">
-        <v>154.6</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1996.5</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C151" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1987</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2636.892</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1996.416666666667</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D152" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E152" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1216.8998</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1996.45</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2143.1868</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1996.5</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F154" t="n">
-        <v>117.449</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1996.583333333333</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F155" t="n">
-        <v>64.0531</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1996.683333333333</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E156" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F156" t="n">
-        <v>14.0158</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1996.683333333333</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E157" t="n">
-        <v>2003</v>
-      </c>
-      <c r="F157" t="n">
-        <v>98.30500000000001</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1996.616666666667</v>
-      </c>
-      <c r="H157" t="n">
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
